--- a/data/output/FV2410_FV2404/UTILMD/55143.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55143.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9972" uniqueCount="639">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9993" uniqueCount="639">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2075,6 +2075,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U438" totalsRowShown="0">
+  <autoFilter ref="A1:U438"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2364,7 +2394,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -23629,5 +23662,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55143.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55143.xlsx
@@ -3796,7 +3796,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6338,7 +6338,7 @@
         <v>588</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6500,7 +6500,7 @@
         <v>589</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -6704,7 +6704,7 @@
         <v>591</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6908,7 +6908,7 @@
         <v>593</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7112,7 +7112,7 @@
         <v>595</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7316,7 +7316,7 @@
         <v>596</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7720,7 +7720,7 @@
         <v>598</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -8282,7 +8282,7 @@
         <v>599</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -9106,7 +9106,7 @@
         <v>600</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -9418,7 +9418,7 @@
         <v>601</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -9638,7 +9638,7 @@
         <v>603</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9842,7 +9842,7 @@
         <v>604</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -10394,7 +10394,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -10538,7 +10538,7 @@
         <v>605</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11100,7 +11100,7 @@
         <v>606</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -11628,7 +11628,7 @@
         <v>608</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -12040,7 +12040,7 @@
         <v>609</v>
       </c>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -12240,7 +12240,7 @@
         <v>610</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -12902,7 +12902,7 @@
         <v>611</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -13212,7 +13212,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -13620,7 +13620,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -13760,7 +13760,7 @@
         <v>612</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -14588,7 +14588,7 @@
         <v>614</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -14894,7 +14894,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -15208,7 +15208,7 @@
         <v>615</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -15356,7 +15356,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -15518,7 +15518,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -16474,7 +16474,7 @@
         <v>616</v>
       </c>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -16622,7 +16622,7 @@
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -16780,7 +16780,7 @@
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -17190,7 +17190,7 @@
         <v>617</v>
       </c>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -17502,7 +17502,7 @@
         <v>618</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -17658,7 +17658,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -18670,7 +18670,7 @@
         <v>620</v>
       </c>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -18884,7 +18884,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -19256,7 +19256,7 @@
         <v>621</v>
       </c>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -19560,7 +19560,7 @@
         <v>622</v>
       </c>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -19710,7 +19710,7 @@
         <v>623</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -19928,7 +19928,7 @@
       </c>
       <c r="K315" s="2"/>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -20092,7 +20092,7 @@
         <v>625</v>
       </c>
       <c r="L318" s="4"/>
-      <c r="M318" s="2" t="s">
+      <c r="M318" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N318" s="2" t="s">
@@ -20258,7 +20258,7 @@
         <v>626</v>
       </c>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -20418,7 +20418,7 @@
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -20636,7 +20636,7 @@
         <v>628</v>
       </c>
       <c r="L328" s="4"/>
-      <c r="M328" s="2" t="s">
+      <c r="M328" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N328" s="2" t="s">
@@ -21048,7 +21048,7 @@
         <v>629</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -21248,7 +21248,7 @@
         <v>610</v>
       </c>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -21448,7 +21448,7 @@
         <v>630</v>
       </c>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -21806,7 +21806,7 @@
         <v>631</v>
       </c>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -22006,7 +22006,7 @@
         <v>632</v>
       </c>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -22264,7 +22264,7 @@
         <v>633</v>
       </c>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -22412,7 +22412,7 @@
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -22566,7 +22566,7 @@
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -22714,7 +22714,7 @@
         <v>634</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -22874,7 +22874,7 @@
       </c>
       <c r="K372" s="2"/>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -23196,7 +23196,7 @@
         <v>636</v>
       </c>
       <c r="L378" s="4"/>
-      <c r="M378" s="2" t="s">
+      <c r="M378" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N378" s="2" t="s">
@@ -23344,7 +23344,7 @@
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -23498,7 +23498,7 @@
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -23644,7 +23644,7 @@
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -23802,7 +23802,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -24174,7 +24174,7 @@
         <v>633</v>
       </c>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -24322,7 +24322,7 @@
       </c>
       <c r="K400" s="2"/>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -24622,7 +24622,7 @@
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -24780,7 +24780,7 @@
       </c>
       <c r="K409" s="2"/>
       <c r="L409" s="4"/>
-      <c r="M409" s="2" t="s">
+      <c r="M409" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N409" s="2" t="s">
@@ -24936,7 +24936,7 @@
         <v>637</v>
       </c>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -25226,7 +25226,7 @@
       </c>
       <c r="K418" s="2"/>
       <c r="L418" s="4"/>
-      <c r="M418" s="2" t="s">
+      <c r="M418" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N418" s="2" t="s">
@@ -25386,7 +25386,7 @@
         <v>639</v>
       </c>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -25534,7 +25534,7 @@
       </c>
       <c r="K424" s="2"/>
       <c r="L424" s="4"/>
-      <c r="M424" s="2" t="s">
+      <c r="M424" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N424" s="2" t="s">
@@ -25692,7 +25692,7 @@
       </c>
       <c r="K427" s="2"/>
       <c r="L427" s="4"/>
-      <c r="M427" s="2" t="s">
+      <c r="M427" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N427" s="2" t="s">
@@ -25850,7 +25850,7 @@
       </c>
       <c r="K430" s="2"/>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N430" s="2" t="s">
@@ -25996,7 +25996,7 @@
       </c>
       <c r="K433" s="2"/>
       <c r="L433" s="4"/>
-      <c r="M433" s="2" t="s">
+      <c r="M433" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N433" s="2" t="s">
@@ -26156,7 +26156,7 @@
       </c>
       <c r="K436" s="2"/>
       <c r="L436" s="4"/>
-      <c r="M436" s="2" t="s">
+      <c r="M436" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N436" s="2"/>
